--- a/excel_params/0.9_V2av.xlsx
+++ b/excel_params/0.9_V2av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionI_double_peak\region_I_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE0CFC-6EAB-4B40-9A65-F9F343028EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB22AC5A-264C-4B62-A9DB-D23C30F9574E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{F1038822-7365-4AA3-BB3F-F53A0B30D2B4}"/>
+    <workbookView xWindow="690" yWindow="285" windowWidth="19785" windowHeight="7590" xr2:uid="{90B78733-C515-4B7E-A5E8-64B3BCCC1828}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nw/(nw+nn)</t>
+    <t>nn/(nw+nn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41EF1AB-6440-4A17-B407-28FA817B04AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9ECB9B-FEFE-4545-838D-B8B754A7E824}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
@@ -443,7 +443,7 @@
         <v>17614992840.575054</v>
       </c>
       <c r="D2">
-        <v>0.21667201973433636</v>
+        <v>0.71457887807392784</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -457,7 +457,7 @@
         <v>58292339644.749222</v>
       </c>
       <c r="D3">
-        <v>0.20720462668167411</v>
+        <v>0.84406746940492261</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -471,7 +471,7 @@
         <v>69863532927.58432</v>
       </c>
       <c r="D4">
-        <v>0.20993024547003514</v>
+        <v>0.8601992384931666</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -485,7 +485,7 @@
         <v>7992174660.1735363</v>
       </c>
       <c r="D5">
-        <v>5.803378489611629E-2</v>
+        <v>0.61594122831812881</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -499,7 +499,7 @@
         <v>23974938669.473476</v>
       </c>
       <c r="D6">
-        <v>0.21827301662455048</v>
+        <v>0.7351029215779632</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -513,7 +513,7 @@
         <v>43527207006.114243</v>
       </c>
       <c r="D7">
-        <v>0.20678582598964868</v>
+        <v>0.77524635981404633</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
         <v>55858087897.501099</v>
       </c>
       <c r="D8">
-        <v>0.20094410056354592</v>
+        <v>0.79181554096577844</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
         <v>61149558204.692047</v>
       </c>
       <c r="D9">
-        <v>0.19570293483037551</v>
+        <v>0.81417716193573919</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>64694060851.077774</v>
       </c>
       <c r="D10">
-        <v>0.19262264479698157</v>
+        <v>0.84081633884015017</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>63989997418.227943</v>
       </c>
       <c r="D11">
-        <v>0.2060008208925686</v>
+        <v>0.86252034531813804</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>13072439090.688202</v>
       </c>
       <c r="D12">
-        <v>0.16482124246689692</v>
+        <v>0.8046240975062896</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>20716430002.771294</v>
       </c>
       <c r="D13">
-        <v>0.17348996468077296</v>
+        <v>0.71015068558945005</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>6755302006.7667665</v>
       </c>
       <c r="D14">
-        <v>0.11776526567635523</v>
+        <v>0.73805223802172759</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>5146135834.3383207</v>
       </c>
       <c r="D15">
-        <v>0.20806723715788228</v>
+        <v>0.53561277919089678</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>12852066672.538248</v>
       </c>
       <c r="D16">
-        <v>0.11572040592465768</v>
+        <v>0.72891201439592446</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>17868736503.294617</v>
       </c>
       <c r="D17">
-        <v>0.11440987341598749</v>
+        <v>0.73280952749636441</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>1890843456.9399109</v>
       </c>
       <c r="D18">
-        <v>0.28695892325643757</v>
+        <v>0.44294106077698081</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>7375803402.4604998</v>
       </c>
       <c r="D19">
-        <v>4.8043145285553979E-2</v>
+        <v>0.85004308293463193</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>4053621666.2239752</v>
       </c>
       <c r="D20">
-        <v>0.12918587877003732</v>
+        <v>0.68324869474939054</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>7193463019.2638741</v>
       </c>
       <c r="D21">
-        <v>3.7917436107098169E-2</v>
+        <v>0.85552184723037628</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>3035353378.5837712</v>
       </c>
       <c r="D22">
-        <v>3.9196847193587181E-2</v>
+        <v>0.89095768809406339</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>7366178648.7066278</v>
       </c>
       <c r="D23">
-        <v>3.0822764933211341E-2</v>
+        <v>0.87338320455999763</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>8323412295.6588488</v>
       </c>
       <c r="D24">
-        <v>3.4708054502753258E-2</v>
+        <v>0.85954052689155813</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>2427060579.4313097</v>
       </c>
       <c r="D25">
-        <v>9.7065198445524161E-3</v>
+        <v>0.89509564730617686</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>4006692945.444108</v>
       </c>
       <c r="D26">
-        <v>2.1656859005423242E-2</v>
+        <v>0.90859160705728281</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>7914644732.3754559</v>
       </c>
       <c r="D27">
-        <v>3.0822548888685783E-2</v>
+        <v>0.86729848734063986</v>
       </c>
     </row>
   </sheetData>
